--- a/data/income_statement/3digits/total/471_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/471_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>471-Retail sale in non-specialised stores</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>471-Retail sale in non-specialised stores</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>46759612.12311999</v>
+        <v>46759612.12312</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>53013741.43544</v>
+        <v>53041176.50253</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>61144823.39116</v>
+        <v>61177555.31516001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>70038271.22613999</v>
+        <v>70079425.7385</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>76799032.44112001</v>
+        <v>77615961.68461999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>85298198.81739999</v>
+        <v>89684989.0353</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>98585020.13919</v>
+        <v>104155349.01488</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>112607647.97415</v>
+        <v>115561647.11048</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>135404346.83811</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>165728478.84611</v>
+        <v>165813895.99593</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>195613043.21917</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>196390737.16994</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>244977382.2</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>43319780.69625</v>
+        <v>43319780.69625001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>49238792.83527</v>
+        <v>49265417.14917</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>56739566.76558</v>
+        <v>56771361.16130999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>65091636.03367999</v>
+        <v>65130463.35722999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>71432799.34586999</v>
+        <v>72178693.97565</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>79695864.39134</v>
+        <v>83751070.39957999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>92400188.29180999</v>
+        <v>97612993.39934</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>105276897.86043</v>
+        <v>107995790.68852</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>127015964.5842</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>155138689.50254</v>
+        <v>155222826.84652</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>182686201.39574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>183440552.21884</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>233771257.327</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1642253.49212</v>
@@ -1040,16 +956,16 @@
         <v>2454698.16441</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2889599.30831</v>
+        <v>2889655.04331</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>3329493.14379</v>
+        <v>3332364.36761</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>3581120.57852</v>
+        <v>3583351.78418</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>4337075.17137</v>
+        <v>4337108.42137</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>4781396.26235</v>
@@ -1058,91 +974,106 @@
         <v>6315978.85484</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>7757871.952889999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>7773061.557820001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>5136084.028</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>1797577.93475</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>1941746.49843</v>
+        <v>1942557.25162</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2155686.46662</v>
+        <v>2156623.99489</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>2491937.02805</v>
+        <v>2494264.21686</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>2476633.78694</v>
+        <v>2547612.66566</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>2272841.28227</v>
+        <v>2601554.26811</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2603711.26886</v>
+        <v>2959003.83136</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>2993674.94235</v>
+        <v>3228748.00059</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>3606985.99156</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>4273810.48873</v>
+        <v>4275090.29457</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>5168969.87054</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>5177123.393279999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>6070040.845</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>525350.0067700001</v>
+        <v>525350.00677</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>633457.1757299999</v>
+        <v>633457.17573</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>737576.3920699999</v>
+        <v>737579.46332</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>967525.0188</v>
+        <v>967526.28445</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>951751.95344</v>
+        <v>967860.0775199999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>988320.87271</v>
+        <v>1034060.93149</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1113975.39866</v>
+        <v>1190718.55331</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1320604.38827</v>
+        <v>1344302.32637</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1801967.785</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2482940.64745</v>
+        <v>2483759.676690001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2617808.11102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2619288.42324</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2902382.824</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>263704.5647</v>
@@ -1151,37 +1082,42 @@
         <v>303953.62717</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>365947.8250199999</v>
+        <v>365950.89627</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>508133.5528</v>
+        <v>508134.81845</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>502234.0679</v>
+        <v>515786.92945</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>560728.8727800001</v>
+        <v>598222.9191599999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>649369.9725300001</v>
+        <v>709678.60195</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>773360.46191</v>
+        <v>795370.32127</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>1043560.58072</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1423279.15574</v>
+        <v>1424016.77868</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1471769.96474</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1473002.12652</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1914706.986</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>229040.84004</v>
@@ -1196,265 +1132,300 @@
         <v>404295.31658</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>396981.47132</v>
+        <v>399017.49031</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>407942.0806200001</v>
+        <v>409439.06517</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>447656.00672</v>
+        <v>455871.15862</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>502907.36564</v>
+        <v>504539.876</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>710139.0843199999</v>
+        <v>710139.08432</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>993591.9968999999</v>
+        <v>993591.9969000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1061118.11732</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1061356.36771</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>925912.249</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>32604.60203</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>50478.72058000001</v>
+        <v>50478.72058</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>44310.03393000001</v>
+        <v>44310.03393</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>55096.14941999999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>52536.41422</v>
+        <v>53055.65775999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>19649.91931</v>
+        <v>26398.94716</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>16949.41941</v>
+        <v>25168.79274</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>44336.56072</v>
+        <v>44392.12909999999</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>48268.11996</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>66069.49481</v>
+        <v>66150.90111000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>84920.02896</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>84929.92901000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>61763.589</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>46234262.11635</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>52380284.25971</v>
+        <v>52407719.3268</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>60407246.99908999</v>
+        <v>60439975.85184</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>69070746.20734</v>
+        <v>69111899.45404999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>75847280.48767999</v>
+        <v>76648101.6071</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>84309877.94469</v>
+        <v>88650928.10381</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>97471044.74053</v>
+        <v>102964630.46157</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>111287043.58588</v>
+        <v>114217344.78411</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>133602379.05311</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>163245538.19866</v>
+        <v>163330136.31924</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>192995235.10815</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>193771448.7467</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>242074999.376</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>38346952.785</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>43177577.99808</v>
+        <v>43204185.46184</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>49670995.62727001</v>
+        <v>49702380.11647999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>56563586.9861</v>
+        <v>56602183.09392001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>61847574.00704999</v>
+        <v>62544809.65299</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>68675968.02552</v>
+        <v>72160748.6083</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>79232080.01519001</v>
+        <v>83628080.91863</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>90331024.4082</v>
+        <v>92598072.27029999</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>107433105.38134</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>129804878.24135</v>
+        <v>129888697.0217</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>153576360.05543</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>154265611.77811</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>195296681.185</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>732897.90365</v>
+        <v>732897.9036499999</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>1187720.09926</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1713717.14626</v>
+        <v>1714124.00661</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>974153.2932599999</v>
+        <v>974394.97663</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>810892.7466000001</v>
+        <v>1451800.19523</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>808092.9966800001</v>
+        <v>831713.60149</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1127572.1119</v>
+        <v>1249754.65298</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1369876.52978</v>
+        <v>1412175.29413</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>1204070.67106</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1383736.83575</v>
+        <v>1383750.60936</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1479977.86998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1440140.10304</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1647531.814</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>37009716.05606</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>41300296.00714</v>
+        <v>41326903.47090001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>47258498.02991</v>
+        <v>47289346.24991</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>54781562.84956001</v>
+        <v>54818735.10258999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>60196843.35095999</v>
+        <v>60249168.75590999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>66903131.57712</v>
+        <v>70362386.85216001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>77082482.38892001</v>
+        <v>81256205.96913998</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>87694918.89710999</v>
+        <v>89911793.58099</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>104586894.23654</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>126703383.67748</v>
+        <v>126785229.76232</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>150081600.31405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>150792070.68305</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>192317167.575</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>566190.05157</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>635790.3067</v>
+        <v>635790.3067000001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>670948.45204</v>
+        <v>671077.8609</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>777548.31275</v>
+        <v>777746.5604</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>794466.54985</v>
+        <v>795220.8725299999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>928246.5990800001</v>
+        <v>928958.16665</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>935979.94103</v>
+        <v>1036074.72317</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1166840.74788</v>
+        <v>1173443.34847</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1555366.84024</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1628963.63826</v>
+        <v>1630403.86917</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1875484.13385</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1893696.4892</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1200700.37</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>38148.77372</v>
@@ -1466,118 +1437,133 @@
         <v>27831.99906</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>30322.53053</v>
+        <v>31306.4543</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>45371.35964</v>
+        <v>48619.82932</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>36496.85264</v>
+        <v>37689.988</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>86045.57334</v>
+        <v>86045.57333999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>99388.23343000001</v>
+        <v>100660.04671</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>86773.6335</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>88794.08985999999</v>
+        <v>89312.78085</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>139297.73755</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>139704.50282</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>131281.426</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>7887309.33135</v>
+        <v>7887309.331350001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>9202706.261630001</v>
+        <v>9203533.864960002</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>10736251.37182</v>
+        <v>10737595.73536</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>12507159.22124</v>
+        <v>12509716.36013</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>13999706.48063</v>
+        <v>14103291.95411</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>15633909.91917</v>
+        <v>16490179.49551</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>18238964.72534</v>
+        <v>19336549.54294</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>20956019.17768</v>
+        <v>21619272.51381</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>26169273.67177</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>33440659.95731</v>
+        <v>33441439.29754</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>39418875.05272001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>39505836.96859001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>46778318.191</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>7307046.83814</v>
+        <v>7307046.838140002</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>8477526.537560001</v>
+        <v>8478191.43045</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>10062209.8419</v>
+        <v>10063282.03465</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>11756657.42302</v>
+        <v>11759589.92857</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>13220734.56109</v>
+        <v>13453798.06586</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>14552037.31556</v>
+        <v>15549177.17612</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>16838779.78989</v>
+        <v>18131822.71369</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>19739705.69235</v>
+        <v>20660257.07219</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>23994481.6798</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>29617638.89231</v>
+        <v>29637294.75588</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>35714410.75365999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>35809036.04243</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>39806932.576</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2834.36828</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>821.7258200000001</v>
+        <v>821.72582</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>7183.790289999999</v>
@@ -1586,148 +1572,168 @@
         <v>632.2733099999999</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>4897.98098</v>
+        <v>4897.980979999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>4882.39635</v>
+        <v>4882.396350000001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>7945.16672</v>
+        <v>7945.166719999999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>12026.99163</v>
+        <v>12026.99164</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>10875.79309</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>16232.64918</v>
+        <v>16234.32918</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>21899.19863</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>21864.12357</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>23148.392</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>4202312.27397</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>5018691.66661</v>
+        <v>5018970.52169</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>6030146.527729999</v>
+        <v>6030443.89127</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>7408742.20743</v>
+        <v>7409259.58568</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>8575242.156500001</v>
+        <v>8576006.425790001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>10079830.9178</v>
+        <v>10276103.1101</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>11771780.65303</v>
+        <v>12043808.55534</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>13527286.74059</v>
+        <v>13821664.33571</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>16393741.33133</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>21138769.55165</v>
+        <v>21140477.29215</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>25611626.33943</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>25651631.20465</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>29096752.57</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>3101900.195890001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>3458013.14513</v>
+        <v>3458399.18294</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>4024879.52388</v>
+        <v>4025654.35309</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>4347282.942280001</v>
+        <v>4349698.06958</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>4640594.423610001</v>
+        <v>4872893.65909</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>4467324.00141</v>
+        <v>5268191.66967</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>5059053.970139999</v>
+        <v>6080068.991629999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>6200391.96013</v>
+        <v>6826565.74484</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>7589864.55538</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>8462636.69148</v>
+        <v>8480583.13455</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>10080885.2156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>10135540.71421</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>10687031.614</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>580262.4932099999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>725179.72407</v>
+        <v>725342.4345099999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>674041.52992</v>
+        <v>674313.7007099999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>750501.79822</v>
+        <v>750126.4315599999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>778971.9195399999</v>
+        <v>649493.88825</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1081872.60361</v>
+        <v>941002.3193900001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1400184.93545</v>
+        <v>1204726.82925</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1216313.48533</v>
+        <v>959015.4416200001</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2174791.99197</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3823021.065</v>
+        <v>3804144.54166</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>3704464.29906</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3696800.92616</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>6971385.615</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>3648372.80384</v>
@@ -1739,37 +1745,42 @@
         <v>897294.4997</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1013588.64101</v>
+        <v>1014652.784</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1187563.0559</v>
+        <v>1192389.16327</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1085231.55745</v>
+        <v>1245326.34315</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1479383.22901</v>
+        <v>1721119.72427</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1454862.85992</v>
+        <v>1472725.56641</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>2071815.35358</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>3801964.13714</v>
+        <v>3808067.305900001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>5547975.221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>5567341.222809999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4808247.836</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>23196.27822000001</v>
+        <v>23196.27822</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>24097.70199</v>
@@ -1778,10 +1789,10 @@
         <v>26381.75326</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>51383.07197999999</v>
+        <v>51383.07198</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>69794.94636000002</v>
+        <v>69794.94636</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>18604.82301</v>
@@ -1790,7 +1801,7 @@
         <v>71700.65278</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>66187.25001</v>
+        <v>66199.36685999999</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>75848.88214</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>105664.61175</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>33679.228</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>2440748.83435</v>
@@ -1832,7 +1848,7 @@
         <v>47606.56747</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>3998.716080000001</v>
+        <v>3998.71608</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>4553.113679999999</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>1601.72125</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>22159.678</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>203494.11495</v>
@@ -1856,73 +1877,83 @@
         <v>104132.45904</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>103951.62783</v>
+        <v>103993.77799</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>82701.27906999999</v>
+        <v>85954.30486000002</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>90855.05726999999</v>
+        <v>91094.87969999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>99859.34566000001</v>
+        <v>110397.31351</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>129338.61385</v>
+        <v>129480.07916</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>175192.29304</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>344411.85015</v>
+        <v>344952.8404</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>406807.11209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>407223.59406</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>408388.228</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>5456.828509999999</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>5607.576389999999</v>
+        <v>5607.57639</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>7934.83122</v>
+        <v>7934.831219999999</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>19887.27049</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>10646.82507</v>
+        <v>10656.52467</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>8931.10864</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>8874.469050000002</v>
+        <v>9082.039150000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>12423.90876</v>
+        <v>12508.598</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>13087.25091</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>13701.56776</v>
+        <v>14112.69983</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>15994.94264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>16716.5364</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>21479.828</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>29491.40403</v>
@@ -1937,7 +1968,7 @@
         <v>14505.83155</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>92145.07349000001</v>
+        <v>92188.62257000001</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>29927.06163</v>
@@ -1946,7 +1977,7 @@
         <v>188230.38001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>59118.42142000001</v>
+        <v>59118.42142</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>39081.20655</v>
@@ -1955,16 +1986,21 @@
         <v>161997.5276</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>201209.60035</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>201212.25985</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>147814.336</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>5534.085500000001</v>
+        <v>5534.0855</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>2027.65935</v>
@@ -1979,13 +2015,13 @@
         <v>7242.79212</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>20848.23811</v>
+        <v>20851.03271</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>42747.86364</v>
+        <v>42748.80684999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>92811.94013999999</v>
+        <v>92812.20767999999</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>110339.25632</v>
@@ -1994,13 +2030,18 @@
         <v>175569.4069</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>497468.8342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>497703.6602700001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>295321.778</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>614706.20481</v>
@@ -2012,34 +2053,39 @@
         <v>296631.65988</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>340942.72952</v>
+        <v>340942.7295199999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>311473.6058</v>
+        <v>311590.1883100001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>526614.9976</v>
+        <v>532547.36055</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>590491.47794</v>
+        <v>620912.40866</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>552331.9192300001</v>
+        <v>552370.03073</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>807450.81446</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2127282.33825</v>
+        <v>2127847.00872</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3121486.96444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>3133248.23002</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2649062.248</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1345.12046</v>
@@ -2063,7 +2109,7 @@
         <v>520.6318600000001</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>493.9196200000001</v>
+        <v>493.91962</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>138.5554</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>398.56241</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>195.648</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>532.287</v>
@@ -2090,13 +2141,13 @@
         <v>404.77175</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>506.7973</v>
+        <v>506.7973000000001</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>347.52812</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>388.93304</v>
+        <v>388.9330400000001</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>622.64923</v>
@@ -2111,13 +2162,18 @@
         <v>873.94237</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>525.57487</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>1003.04679</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>291.972</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>323867.64601</v>
@@ -2129,37 +2185,42 @@
         <v>425002.39315</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>455207.74771</v>
+        <v>456229.7405400001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>591972.7859299999</v>
+        <v>593376.03632</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>358224.48129</v>
+        <v>512144.28701</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>439611.4681</v>
+        <v>640180.55148</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>494435.63661</v>
+        <v>512021.69266</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>726509.1814300001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>846626.78527</v>
+        <v>851213.16124</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1196817.297</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1202569.00001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1229854.892</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>683257.0546300001</v>
+        <v>683257.05463</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>545686.89511</v>
@@ -2168,34 +2229,39 @@
         <v>532981.8046</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>389421.26393</v>
+        <v>389433.30727</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>635876.2861800001</v>
+        <v>639641.3475799999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>666083.95235</v>
+        <v>670688.3287599999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1136095.67308</v>
+        <v>1159917.77644</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1017775.91032</v>
+        <v>1019077.69153</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1159504.15201</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2740522.74952</v>
+        <v>2742183.88274</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>4240428.97459</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>4242835.3278</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3693311.933</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>23158.3113</v>
@@ -2207,34 +2273,39 @@
         <v>15672.47387</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>18511.90994999999</v>
+        <v>18511.90995</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>16569.42658</v>
+        <v>16587.60954</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>22353.82897</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>23944.29776</v>
+        <v>24002.69728</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>25604.60891</v>
+        <v>25670.33554</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>36470.44422</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>52300.68404000001</v>
+        <v>52302.18629000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>65945.47336999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>66063.47362</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>90986.942</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>73698.51837000001</v>
@@ -2243,22 +2314,22 @@
         <v>60152.39367</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>68726.88900999998</v>
+        <v>68726.88901</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>89919.67678000001</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>182847.23985</v>
+        <v>183632.88589</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>156213.9525</v>
+        <v>156318.7825</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>349773.7277500001</v>
+        <v>355798.12023</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>285198.59589</v>
+        <v>285884.98902</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>245187.08911</v>
@@ -2267,19 +2338,24 @@
         <v>257391.16507</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>389839.5448000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>389839.5448</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>350178.675</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>834.45705</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>533.80709</v>
+        <v>533.8070900000001</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>312.53968</v>
@@ -2294,10 +2370,10 @@
         <v>22352.37929</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>461.63162</v>
+        <v>518.61262</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1484.05032</v>
+        <v>1504.05032</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>178.1054</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>29991.03696</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>138119.407</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>537365.53764</v>
@@ -2321,40 +2402,45 @@
         <v>412416.30602</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>385192.13746</v>
+        <v>385192.1374600001</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>222513.20285</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>360480.26089</v>
+        <v>363323.24873</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>380061.24913</v>
+        <v>384560.7954</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>664931.1660399999</v>
+        <v>681355.06371</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>576975.3647599999</v>
+        <v>577475.00514</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>756205.93389</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2309506.27048</v>
+        <v>2311065.70547</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>3285760.68034</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>3288007.3604</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2857572.197</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>3589.019789999999</v>
+        <v>3589.01979</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>2126.86209</v>
@@ -2363,16 +2449,16 @@
         <v>302.5347400000001</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>276.9700099999999</v>
+        <v>276.97001</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>409.5179899999999</v>
+        <v>409.51799</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>376.76208</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>231.79308</v>
+        <v>247.2651</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>33072.73649</v>
@@ -2384,13 +2470,18 @@
         <v>521.9472500000001</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>325.4847599999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>325.48476</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>924.164</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>248.67917</v>
@@ -2423,130 +2514,150 @@
         <v>69.19667</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>48.55551</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>48.55569999999999</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>6.668</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>44362.53131000001</v>
+        <v>44362.53131</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>54464.17513</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>62645.65943</v>
+        <v>62645.65943000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>55468.15538999999</v>
+        <v>55480.19873</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>74946.50936</v>
+        <v>75064.75391999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>84597.11189999999</v>
+        <v>84597.11204000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>96677.15325</v>
+        <v>97920.11391999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>92761.88017999999</v>
+        <v>92791.90125</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>120041.77788</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>108111.07667</v>
+        <v>108211.27265</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>468518.19885</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>468559.8715599999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>255523.88</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>699031.1764700001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>436757.05253</v>
+        <v>436761.85277</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1074041.10789</v>
+        <v>1074044.72768</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>641289.43778</v>
+        <v>641301.59965</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1285407.09683</v>
+        <v>1301263.85372</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>848458.94016</v>
+        <v>861054.8575000002</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1585587.64152</v>
+        <v>1657181.14221</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1949517.99658</v>
+        <v>2012169.72501</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>2491807.48501</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>3458466.75508</v>
+        <v>3459054.71798</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2872791.86013</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2879433.63718</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3102974.423</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>519036.5768</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>269924.92198</v>
+        <v>269929.7222200001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>377250.02339</v>
+        <v>377253.6431800001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>456618.29873</v>
+        <v>456630.4606</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>515548.88777</v>
+        <v>531405.6446600001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>652897.18227</v>
+        <v>665493.09961</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>937818.31216</v>
+        <v>1009370.09801</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1174496.71867</v>
+        <v>1237148.4471</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1447895.61023</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1773771.83709</v>
+        <v>1774359.79999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1520023.22762</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1526556.25803</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1436895.59</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>179994.59967</v>
@@ -2555,7 +2666,7 @@
         <v>166832.13055</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>696791.0845000001</v>
+        <v>696791.0845</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>184671.13905</v>
@@ -2567,7 +2678,7 @@
         <v>195561.75789</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>647769.32936</v>
+        <v>647811.0442</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>775021.2779099999</v>
@@ -2579,52 +2690,62 @@
         <v>1684694.91799</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1352768.63251</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1352877.37915</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1666078.833</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>2846347.06595</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>1018232.11335</v>
+        <v>1018390.02355</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-35686.88287</v>
+        <v>-35418.33186999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>733379.73752</v>
+        <v>734044.3086399999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>45251.59243</v>
+        <v>-99022.14978000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>652561.2685499999</v>
+        <v>654585.4762799999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>157884.84986</v>
+        <v>108747.63487</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-296117.56165</v>
+        <v>-599506.40851</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>595295.7085299999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1425995.69754</v>
+        <v>1410973.24684</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2139218.68534</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2141873.18399</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>4983347.095</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>153086.01481</v>
@@ -2633,37 +2754,42 @@
         <v>169920.52428</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>602641.6000100001</v>
+        <v>602641.6000099999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>168549.98752</v>
+        <v>168658.75875</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>206772.22748</v>
+        <v>220235.90246</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>548734.7885</v>
+        <v>681063.80184</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>466216.1867899999</v>
+        <v>697349.4297999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>492641.68267</v>
+        <v>642830.79288</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>589650.1476499999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1954015.94873</v>
+        <v>1959282.39991</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>643671.3790100001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>648710.97302</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1003988.735</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>4540.51685</v>
@@ -2678,31 +2804,36 @@
         <v>3177.27916</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>9535.29119</v>
+        <v>9826.37912</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>16177.96738</v>
+        <v>16179.86738</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>25238.66522</v>
+        <v>25241.32546</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>88868.73202999998</v>
+        <v>88872.21883</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>101292.91653</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>4460.508269999999</v>
+        <v>4460.509480000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>7877.014129999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>7943.898439999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>7824.852</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>148545.49796</v>
@@ -2711,76 +2842,86 @@
         <v>166124.40019</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>594305.96881</v>
+        <v>594305.9688100001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>165372.70836</v>
+        <v>165481.47959</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>197236.93629</v>
+        <v>210409.52334</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>532556.82112</v>
+        <v>664883.93446</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>440977.52157</v>
+        <v>672108.10434</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>403772.9506400001</v>
+        <v>553958.5740500001</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>488357.23112</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1949555.44046</v>
+        <v>1954821.89043</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>635794.3648799999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>640767.0745799999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>996163.883</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>126448.60896</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>177092.4461</v>
+        <v>177092.49499</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>382178.6017999999</v>
+        <v>382191.83426</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>151179.61326</v>
+        <v>151219.24798</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>287124.68115</v>
+        <v>296651.63018</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>315493.49071</v>
+        <v>458116.7943900001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>445413.4668500001</v>
+        <v>511486.25988</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>551336.9947899999</v>
+        <v>720701.99255</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>482066.08567</v>
+        <v>482066.0856699999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1227383.66889</v>
+        <v>1230649.92957</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>486897.85539</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>488763.21773</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>692289.9350000001</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>3214.21374</v>
@@ -2789,22 +2930,22 @@
         <v>7689.57022</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>6248.128199999999</v>
+        <v>6248.1282</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>1696.32484</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>5954.519080000001</v>
+        <v>5954.51908</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>28549.7081</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>2272.17528</v>
+        <v>2555.45185</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>7231.947</v>
+        <v>10972.67975</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>3611.02295</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>1083.83316</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>2029.443</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>7388.17576</v>
@@ -2834,109 +2980,124 @@
         <v>16116.05174</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>28297.64424</v>
+        <v>37810.98916</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>61471.51274000001</v>
+        <v>69121.7853</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>32076.48478</v>
+        <v>35781.61911</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>42821.28118</v>
+        <v>50961.63701999999</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>32638.90593</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>120800.71152</v>
+        <v>120803.37048</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>51272.27252000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>51310.83327</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>40829.689</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>115846.21946</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>125045.6436</v>
+        <v>125045.69249</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>364467.42649</v>
+        <v>364480.65895</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>133367.23668</v>
+        <v>133406.8714</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>252872.51783</v>
+        <v>252886.12194</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>225472.26987</v>
+        <v>360445.30099</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>411064.8067899999</v>
+        <v>473149.18892</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>501283.76661</v>
+        <v>658767.6757799999</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>445816.15679</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1103393.25369</v>
+        <v>1106656.85541</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>434541.7497100001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>436368.5513</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>649430.803</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>2872984.4718</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>1011060.19153</v>
+        <v>1011218.05284</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>184776.11534</v>
+        <v>185031.43388</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>750750.11178</v>
+        <v>751483.81941</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-35100.86123999999</v>
+        <v>-175437.8775</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>885802.56634</v>
+        <v>877532.48373</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>178687.5698</v>
+        <v>294610.80479</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-354812.87377</v>
+        <v>-677377.6081800001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>702879.7705099999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>2152627.97738</v>
+        <v>2139605.71718</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2295992.20896</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2301820.93928</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>5295045.895</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>191877.30889</v>
@@ -2945,73 +3106,81 @@
         <v>220120.35097</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>331665.82307</v>
+        <v>331665.8230699999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>295262.33152</v>
+        <v>295269.88296</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>357891.04385</v>
+        <v>357903.2997800001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>253022.72975</v>
+        <v>254921.96247</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>444354.90619</v>
+        <v>445177.71933</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>243167.35974</v>
+        <v>243610.03677</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>626669.67151</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>842872.3067800001</v>
+        <v>843152.41721</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>924839.01199</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>927579.1716099998</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1718047.296</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>2681107.16291</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>790939.84056</v>
+        <v>791097.7018699999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-146889.70773</v>
+        <v>-146634.38919</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>455487.78026</v>
+        <v>456213.93645</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-392991.90509</v>
+        <v>-533341.1772799999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>632779.8365900001</v>
+        <v>622610.52126</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-265667.3363900001</v>
+        <v>-150566.91454</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-597980.2335099999</v>
+        <v>-920987.6449499999</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>76210.099</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1309755.6706</v>
+        <v>1296453.29997</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1371153.19697</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1374241.76767</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>3576998.599</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>12985</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>12837</v>
+        <v>12838</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>12478</v>
+        <v>12481</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>11624</v>
+        <v>11641</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>10754</v>
+        <v>10781</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>10083</v>
+        <v>10130</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>9812</v>
+        <v>9923</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>9807</v>
+        <v>9869</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>10078</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>9554</v>
+        <v>10398</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>9531</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>10696</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>11263</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>